--- a/data/D2_Arriendos.xlsx
+++ b/data/D2_Arriendos.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquespolette/Documents/Programacion/YNK_Modelo EBITDA/02. Simulador HTML/00. Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrotorres/Downloads/YNK_Store Planner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C04567-A24A-7340-A088-0004F728699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15839F52-5A18-2E43-906C-534AB4BFA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="23980" xr2:uid="{4CDE7167-152A-5A4A-9DC4-828923D9CC78}"/>
+    <workbookView xWindow="8720" yWindow="4460" windowWidth="38400" windowHeight="20980" xr2:uid="{4CDE7167-152A-5A4A-9DC4-828923D9CC78}"/>
   </bookViews>
   <sheets>
     <sheet name="Arriendos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arriendos!$A$1:$G$169</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +47,7 @@
     <comment ref="F68" authorId="0" shapeId="0" xr:uid="{B9237956-062C-E346-9CC6-80CB95BE0F81}">
       <text>
         <t xml:space="preserve">[Comentario encadenado]
-Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     A partir de 2027 es doble
 </t>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
   <si>
     <t>Variable</t>
   </si>
@@ -213,12 +216,6 @@
     <t>1054-Belsport Costanera</t>
   </si>
   <si>
-    <t>1056-Belsport Vivo San Fernando</t>
-  </si>
-  <si>
-    <t>1057-Belsport Outlet La Fabrica</t>
-  </si>
-  <si>
     <t>1061-Belsport Parque Arauco</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>2037-Bold Vespucio III</t>
   </si>
   <si>
-    <t>5000-Drops Ahumada</t>
-  </si>
-  <si>
     <t>5002-Drops MUT</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>6106-Locker San Pedro</t>
   </si>
   <si>
-    <t>7302-Antihuman Costanera Center</t>
-  </si>
-  <si>
     <t>7501-Hoka Costanera</t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t>B002-Bamers Apumanque</t>
   </si>
   <si>
-    <t>B003-Bamers Open Plaza Rancagua</t>
-  </si>
-  <si>
     <t>B004-Bamers Plaza Antofagasta</t>
   </si>
   <si>
@@ -462,9 +450,6 @@
     <t>B011-Bamers Plaza Tobalaba</t>
   </si>
   <si>
-    <t>B012-Bamers Mall Center Concepcion</t>
-  </si>
-  <si>
     <t>B016-Bamers Alto Las Condes</t>
   </si>
   <si>
@@ -504,12 +489,6 @@
     <t>B053-Bamers San Fernando</t>
   </si>
   <si>
-    <t>B054-Bamers Mall Plaza La Serena II</t>
-  </si>
-  <si>
-    <t>B055-Bamers Costanera Center II</t>
-  </si>
-  <si>
     <t>B056-Bamers Rosas</t>
   </si>
   <si>
@@ -519,9 +498,6 @@
     <t>B058-Bamers Florida Center II</t>
   </si>
   <si>
-    <t>B059-Bamers Alto Las Condes II</t>
-  </si>
-  <si>
     <t>B602-Bamers Easton Center</t>
   </si>
   <si>
@@ -549,9 +525,6 @@
     <t>E001-Oakley Portal Rancagua</t>
   </si>
   <si>
-    <t>JO01-JOIA MUT</t>
-  </si>
-  <si>
     <t>E002-Oakley El Trebol</t>
   </si>
   <si>
@@ -568,6 +541,45 @@
   </si>
   <si>
     <t>Fondo promoción</t>
+  </si>
+  <si>
+    <t>1056-Belsport Vivo San Fernand</t>
+  </si>
+  <si>
+    <t>1057-Belsport Outlet La Fabric</t>
+  </si>
+  <si>
+    <t>7302-Antihuman Costanera Cente</t>
+  </si>
+  <si>
+    <t>B003-Bamers Open Plaza Rancagu</t>
+  </si>
+  <si>
+    <t>B012-Bamers Mall Center Concep</t>
+  </si>
+  <si>
+    <t>B054-Bamers Mall Plaza La Sere</t>
+  </si>
+  <si>
+    <t>B055-Bamers Costanera Center I</t>
+  </si>
+  <si>
+    <t>A006-JOIA MUT</t>
+  </si>
+  <si>
+    <t>P-Bamers X</t>
+  </si>
+  <si>
+    <t>P-Bamers Y</t>
+  </si>
+  <si>
+    <t>P-Apple Puerto Varas</t>
+  </si>
+  <si>
+    <t>P-Hoka Parque Arauco</t>
+  </si>
+  <si>
+    <t>P-Drops Parque Arauco</t>
   </si>
 </sst>
 </file>
@@ -580,7 +592,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,6 +612,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,6 +620,12 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,7 +666,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,6 +676,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -1008,44 +1028,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231DE11B-BE07-E242-BC47-60F03B09DCC4}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E165"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2200,7 +2220,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B52" s="3">
         <v>103.7</v>
@@ -2223,7 +2243,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B53" s="3">
         <v>341.71</v>
@@ -2246,7 +2266,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>174.1</v>
@@ -2269,7 +2289,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>127</v>
@@ -2292,7 +2312,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>294.41000000000003</v>
@@ -2315,7 +2335,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>267.35000000000002</v>
@@ -2338,7 +2358,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>191.16</v>
@@ -2361,7 +2381,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>229</v>
@@ -2384,7 +2404,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>156.54000000000002</v>
@@ -2407,7 +2427,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>141.26</v>
@@ -2430,7 +2450,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>157</v>
@@ -2453,7 +2473,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>113.37</v>
@@ -2476,7 +2496,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>124</v>
@@ -2499,7 +2519,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>150</v>
@@ -2522,7 +2542,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>133</v>
@@ -2545,7 +2565,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>307.81</v>
@@ -2568,7 +2588,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>96.63</v>
@@ -2591,7 +2611,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>234.87</v>
@@ -2614,7 +2634,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>157.46</v>
@@ -2637,7 +2657,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>241</v>
@@ -2660,7 +2680,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>160.96</v>
@@ -2683,7 +2703,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>238.53</v>
@@ -2706,7 +2726,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>176.83</v>
@@ -2729,7 +2749,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>169.7</v>
@@ -2752,7 +2772,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>222.32</v>
@@ -2775,7 +2795,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>183.28</v>
@@ -2798,7 +2818,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>241.04</v>
@@ -2821,7 +2841,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>175.79</v>
@@ -2844,7 +2864,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>201.17</v>
@@ -2867,7 +2887,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>169.1</v>
@@ -2890,7 +2910,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>194.3</v>
@@ -2913,7 +2933,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>169</v>
@@ -2936,7 +2956,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>180</v>
@@ -2959,7 +2979,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>183.76</v>
@@ -2982,7 +3002,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>152.94</v>
@@ -3005,7 +3025,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>140.85</v>
@@ -3028,7 +3048,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>200</v>
@@ -3051,7 +3071,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>123.67</v>
@@ -3074,7 +3094,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>215.56</v>
@@ -3097,7 +3117,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>943.96</v>
@@ -3120,7 +3140,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>193</v>
@@ -3143,7 +3163,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>218.6</v>
@@ -3166,7 +3186,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>210</v>
@@ -3189,7 +3209,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>268.38</v>
@@ -3212,7 +3232,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>451</v>
@@ -3235,7 +3255,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>230</v>
@@ -3258,7 +3278,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>148.72</v>
@@ -3281,7 +3301,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>138.27000000000001</v>
@@ -3304,7 +3324,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>822.87</v>
@@ -3327,16 +3347,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>112</v>
+        <v>231.9</v>
       </c>
       <c r="C101" s="3">
-        <v>380</v>
+        <v>108.79</v>
       </c>
       <c r="D101" s="4">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E101" s="4">
         <v>0.1</v>
@@ -3345,21 +3365,21 @@
         <v>1</v>
       </c>
       <c r="G101" s="6">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>231.9</v>
+        <v>236.29</v>
       </c>
       <c r="C102" s="3">
-        <v>108.79</v>
+        <v>259.91900000000004</v>
       </c>
       <c r="D102" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E102" s="4">
         <v>0.1</v>
@@ -3373,22 +3393,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
-        <v>236.29</v>
+        <v>155.4</v>
       </c>
       <c r="C103" s="3">
-        <v>259.91900000000004</v>
+        <v>90</v>
       </c>
       <c r="D103" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E103" s="4">
         <v>0.1</v>
       </c>
       <c r="F103" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="6">
         <v>0</v>
@@ -3396,22 +3416,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>155.4</v>
+        <v>135.56</v>
       </c>
       <c r="C104" s="3">
-        <v>90</v>
+        <v>83.1</v>
       </c>
       <c r="D104" s="4">
-        <v>0.09</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E104" s="4">
         <v>0.1</v>
       </c>
       <c r="F104" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="6">
         <v>0</v>
@@ -3419,13 +3439,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B105" s="3">
-        <v>135.56</v>
+        <v>290</v>
       </c>
       <c r="C105" s="3">
-        <v>83.1</v>
+        <v>328.65</v>
       </c>
       <c r="D105" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3434,21 +3454,21 @@
         <v>0.1</v>
       </c>
       <c r="F105" s="5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="G105" s="6">
-        <v>0</v>
+        <v>6327142.8571428573</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B106" s="3">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="C106" s="3">
-        <v>328.65</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="D106" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3460,18 +3480,18 @@
         <v>1.75</v>
       </c>
       <c r="G106" s="6">
-        <v>6327142.8571428573</v>
+        <v>2901428.5714285714</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B107" s="3">
-        <v>110</v>
+        <v>73.84</v>
       </c>
       <c r="C107" s="3">
-        <v>246.67500000000001</v>
+        <v>132.91200000000001</v>
       </c>
       <c r="D107" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3480,116 +3500,116 @@
         <v>0.1</v>
       </c>
       <c r="F107" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G107" s="6">
-        <v>2901428.5714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3">
-        <v>73.84</v>
+        <v>337</v>
       </c>
       <c r="C108" s="3">
-        <v>132.91200000000001</v>
+        <v>360</v>
       </c>
       <c r="D108" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E108" s="4">
         <v>0.1</v>
       </c>
       <c r="F108" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="6">
-        <v>0</v>
+        <v>219428.57142857142</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
-        <v>337</v>
+        <v>151</v>
       </c>
       <c r="C109" s="3">
-        <v>360</v>
+        <v>162.62400000000005</v>
       </c>
       <c r="D109" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E109" s="4">
         <v>0.1</v>
       </c>
       <c r="F109" s="5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="G109" s="6">
-        <v>219428.57142857142</v>
+        <v>3119285.7142857141</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B110" s="3">
-        <v>151</v>
+        <v>198.11</v>
       </c>
       <c r="C110" s="3">
-        <v>162.62400000000005</v>
+        <v>283.1399999999997</v>
       </c>
       <c r="D110" s="4">
-        <v>4.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E110" s="4">
         <v>0.1</v>
       </c>
       <c r="F110" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G110" s="6">
-        <v>3119285.7142857141</v>
+        <v>4730142.8571428573</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B111" s="3">
-        <v>198.11</v>
+        <v>108.5</v>
       </c>
       <c r="C111" s="3">
-        <v>283.1399999999997</v>
+        <v>143.57200000000003</v>
       </c>
       <c r="D111" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E111" s="4">
         <v>0.1</v>
       </c>
       <c r="F111" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G111" s="6">
-        <v>4730142.8571428573</v>
+        <v>2285142.8571428573</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B112" s="3">
-        <v>108.5</v>
+        <v>45.81</v>
       </c>
       <c r="C112" s="3">
-        <v>143.57200000000003</v>
+        <v>66.28</v>
       </c>
       <c r="D112" s="4">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E112" s="4">
         <v>0.1</v>
@@ -3598,21 +3618,21 @@
         <v>1.75</v>
       </c>
       <c r="G112" s="6">
-        <v>2285142.8571428573</v>
+        <v>1147714.2857142857</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B113" s="3">
-        <v>45.81</v>
+        <v>100</v>
       </c>
       <c r="C113" s="3">
-        <v>66.28</v>
+        <v>93.18</v>
       </c>
       <c r="D113" s="4">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E113" s="4">
         <v>0.1</v>
@@ -3621,41 +3641,41 @@
         <v>1.75</v>
       </c>
       <c r="G113" s="6">
-        <v>1147714.2857142857</v>
+        <v>2540857.1428571427</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C114" s="3">
-        <v>93.18</v>
+        <v>190.83878000000001</v>
       </c>
       <c r="D114" s="4">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E114" s="4">
         <v>0.1</v>
       </c>
       <c r="F114" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G114" s="6">
-        <v>2540857.1428571427</v>
+        <v>4605571.4285714282</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3">
-        <v>134</v>
+        <v>48.3</v>
       </c>
       <c r="C115" s="3">
-        <v>190.83878000000001</v>
+        <v>62.79</v>
       </c>
       <c r="D115" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3667,18 +3687,18 @@
         <v>2</v>
       </c>
       <c r="G115" s="6">
-        <v>4605571.4285714282</v>
+        <v>1057142.857142857</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B116" s="3">
-        <v>48.3</v>
+        <v>123.97</v>
       </c>
       <c r="C116" s="3">
-        <v>62.79</v>
+        <v>49.6</v>
       </c>
       <c r="D116" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3690,18 +3710,18 @@
         <v>2</v>
       </c>
       <c r="G116" s="6">
-        <v>1057142.857142857</v>
+        <v>2282428.5714285714</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B117" s="3">
-        <v>123.97</v>
+        <v>74.87</v>
       </c>
       <c r="C117" s="3">
-        <v>49.6</v>
+        <v>122.0381</v>
       </c>
       <c r="D117" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3713,18 +3733,18 @@
         <v>2</v>
       </c>
       <c r="G117" s="6">
-        <v>2282428.5714285714</v>
+        <v>1307428.5714285714</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
-        <v>74.87</v>
+        <v>185</v>
       </c>
       <c r="C118" s="3">
-        <v>122.0381</v>
+        <v>482.84999999999997</v>
       </c>
       <c r="D118" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3736,18 +3756,18 @@
         <v>2</v>
       </c>
       <c r="G118" s="6">
-        <v>1307428.5714285714</v>
+        <v>4214857.1428571427</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3">
-        <v>185</v>
+        <v>82.81</v>
       </c>
       <c r="C119" s="3">
-        <v>482.84999999999997</v>
+        <v>132.49600000000001</v>
       </c>
       <c r="D119" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3759,18 +3779,18 @@
         <v>2</v>
       </c>
       <c r="G119" s="6">
-        <v>4214857.1428571427</v>
+        <v>2504142.8571428573</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B120" s="3">
-        <v>82.81</v>
+        <v>101</v>
       </c>
       <c r="C120" s="3">
-        <v>132.49600000000001</v>
+        <v>163.29579000000001</v>
       </c>
       <c r="D120" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3782,18 +3802,18 @@
         <v>2</v>
       </c>
       <c r="G120" s="6">
-        <v>2504142.8571428573</v>
+        <v>2010000</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B121" s="3">
-        <v>101</v>
+        <v>186.37</v>
       </c>
       <c r="C121" s="3">
-        <v>163.29579000000001</v>
+        <v>316.82900000000001</v>
       </c>
       <c r="D121" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3805,18 +3825,18 @@
         <v>2</v>
       </c>
       <c r="G121" s="6">
-        <v>2010000</v>
+        <v>3777285.7142857141</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B122" s="3">
-        <v>186.37</v>
+        <v>228.14</v>
       </c>
       <c r="C122" s="3">
-        <v>316.82900000000001</v>
+        <v>351.3356</v>
       </c>
       <c r="D122" s="4">
         <v>3.5000000000000003E-2</v>
@@ -3828,41 +3848,41 @@
         <v>2</v>
       </c>
       <c r="G122" s="6">
-        <v>3777285.7142857141</v>
+        <v>5182857.1428571427</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B123" s="3">
-        <v>228.14</v>
+        <v>153.52000000000001</v>
       </c>
       <c r="C123" s="3">
-        <v>351.3356</v>
+        <v>138.16800000000001</v>
       </c>
       <c r="D123" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E123" s="4">
         <v>0.1</v>
       </c>
       <c r="F123" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" s="6">
-        <v>5182857.1428571427</v>
+        <v>3418142.8571428573</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
-        <v>153.52000000000001</v>
+        <v>157.69</v>
       </c>
       <c r="C124" s="3">
-        <v>138.16800000000001</v>
+        <v>139.20084750000001</v>
       </c>
       <c r="D124" s="4">
         <v>0.03</v>
@@ -3871,67 +3891,67 @@
         <v>0.1</v>
       </c>
       <c r="F124" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="6">
-        <v>3418142.8571428573</v>
+        <v>3101857.1428571427</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3">
-        <v>157.69</v>
+        <v>104.79</v>
       </c>
       <c r="C125" s="3">
-        <v>139.20084750000001</v>
+        <v>94.31</v>
       </c>
       <c r="D125" s="4">
-        <v>0.03</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E125" s="4">
         <v>0.1</v>
       </c>
       <c r="F125" s="5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G125" s="6">
-        <v>3101857.1428571427</v>
+        <v>1223142.857142857</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B126" s="3">
-        <v>104.79</v>
+        <v>30</v>
       </c>
       <c r="C126" s="3">
-        <v>94.31</v>
+        <v>55</v>
       </c>
       <c r="D126" s="4">
-        <v>2.8000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E126" s="4">
         <v>0.1</v>
       </c>
       <c r="F126" s="5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G126" s="6">
-        <v>1223142.857142857</v>
+        <v>213285.71428571429</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C127" s="3">
-        <v>55</v>
+        <v>33.9</v>
       </c>
       <c r="D127" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3943,18 +3963,18 @@
         <v>2</v>
       </c>
       <c r="G127" s="6">
-        <v>213285.71428571429</v>
+        <v>233857.14285714287</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B128" s="3">
-        <v>24</v>
+        <v>36.69</v>
       </c>
       <c r="C128" s="3">
-        <v>33.9</v>
+        <v>60.477961500000006</v>
       </c>
       <c r="D128" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3966,18 +3986,18 @@
         <v>2</v>
       </c>
       <c r="G128" s="6">
-        <v>233857.14285714287</v>
+        <v>887428.57142857148</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B129" s="3">
-        <v>36.69</v>
+        <v>42</v>
       </c>
       <c r="C129" s="3">
-        <v>60.477961500000006</v>
+        <v>23.1</v>
       </c>
       <c r="D129" s="4">
         <v>8.1000000000000003E-2</v>
@@ -3989,18 +4009,18 @@
         <v>2</v>
       </c>
       <c r="G129" s="6">
-        <v>887428.57142857148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B130" s="3">
-        <v>42</v>
+        <v>32.85</v>
       </c>
       <c r="C130" s="3">
-        <v>23.1</v>
+        <v>122.89250700000002</v>
       </c>
       <c r="D130" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4012,18 +4032,18 @@
         <v>2</v>
       </c>
       <c r="G130" s="6">
-        <v>0</v>
+        <v>689571.42857142852</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B131" s="3">
-        <v>32.85</v>
+        <v>88</v>
       </c>
       <c r="C131" s="3">
-        <v>122.89250700000002</v>
+        <v>105.6</v>
       </c>
       <c r="D131" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4035,18 +4055,18 @@
         <v>2</v>
       </c>
       <c r="G131" s="6">
-        <v>689571.42857142852</v>
+        <v>1931714.2857142857</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B132" s="3">
-        <v>88</v>
+        <v>45.64</v>
       </c>
       <c r="C132" s="3">
-        <v>105.6</v>
+        <v>78.091199999999816</v>
       </c>
       <c r="D132" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4055,21 +4075,21 @@
         <v>0.1</v>
       </c>
       <c r="F132" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G132" s="6">
-        <v>1931714.2857142857</v>
+        <v>1197142.857142857</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B133" s="3">
         <v>45.64</v>
       </c>
       <c r="C133" s="3">
-        <v>78.091199999999816</v>
+        <v>80.782800000000009</v>
       </c>
       <c r="D133" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4078,24 +4098,24 @@
         <v>0.1</v>
       </c>
       <c r="F133" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G133" s="6">
-        <v>1197142.857142857</v>
+        <v>1247857.142857143</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B134" s="3">
-        <v>45.64</v>
+        <v>27.45</v>
       </c>
       <c r="C134" s="3">
-        <v>80.782800000000009</v>
+        <v>73.370000000000019</v>
       </c>
       <c r="D134" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E134" s="4">
         <v>0.1</v>
@@ -4104,44 +4124,44 @@
         <v>2</v>
       </c>
       <c r="G134" s="6">
-        <v>1247857.142857143</v>
+        <v>884714.28571428568</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B135" s="3">
-        <v>27.45</v>
+        <v>55</v>
       </c>
       <c r="C135" s="3">
-        <v>73.370000000000019</v>
+        <v>146.99849999999998</v>
       </c>
       <c r="D135" s="4">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E135" s="4">
         <v>0.1</v>
       </c>
       <c r="F135" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G135" s="6">
-        <v>884714.28571428568</v>
+        <v>1884285.7142857143</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B136" s="3">
-        <v>55</v>
+        <v>54.52</v>
       </c>
       <c r="C136" s="3">
-        <v>146.99849999999998</v>
+        <v>101.64000000000007</v>
       </c>
       <c r="D136" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E136" s="4">
         <v>0.1</v>
@@ -4150,41 +4170,41 @@
         <v>1.75</v>
       </c>
       <c r="G136" s="6">
-        <v>1884285.7142857143</v>
+        <v>1267857.142857143</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3">
-        <v>54.52</v>
+        <v>71.75</v>
       </c>
       <c r="C137" s="3">
-        <v>101.64000000000007</v>
+        <v>118.38749999999999</v>
       </c>
       <c r="D137" s="4">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E137" s="4">
         <v>0.1</v>
       </c>
       <c r="F137" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G137" s="6">
-        <v>1267857.142857143</v>
+        <v>2211571.4285714286</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B138" s="3">
-        <v>71.75</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="C138" s="3">
-        <v>118.38749999999999</v>
+        <v>58.367999999999995</v>
       </c>
       <c r="D138" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4196,18 +4216,18 @@
         <v>2</v>
       </c>
       <c r="G138" s="6">
-        <v>2211571.4285714286</v>
+        <v>799714.28571428568</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3">
-        <v>36.479999999999997</v>
+        <v>42</v>
       </c>
       <c r="C139" s="3">
-        <v>58.367999999999995</v>
+        <v>21</v>
       </c>
       <c r="D139" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4219,18 +4239,18 @@
         <v>2</v>
       </c>
       <c r="G139" s="6">
-        <v>799714.28571428568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B140" s="3">
-        <v>42</v>
+        <v>124.4</v>
       </c>
       <c r="C140" s="3">
-        <v>21</v>
+        <v>142.11456000000001</v>
       </c>
       <c r="D140" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4242,18 +4262,18 @@
         <v>2</v>
       </c>
       <c r="G140" s="6">
-        <v>0</v>
+        <v>2831857.1428571427</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3">
-        <v>124.4</v>
+        <v>114.29</v>
       </c>
       <c r="C141" s="3">
-        <v>142.11456000000001</v>
+        <v>259.21079729999809</v>
       </c>
       <c r="D141" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4265,18 +4285,18 @@
         <v>2</v>
       </c>
       <c r="G141" s="6">
-        <v>2831857.1428571427</v>
+        <v>2522000</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B142" s="3">
-        <v>114.29</v>
+        <v>106.32</v>
       </c>
       <c r="C142" s="3">
-        <v>259.21079729999809</v>
+        <v>279.4684992</v>
       </c>
       <c r="D142" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4288,18 +4308,18 @@
         <v>2</v>
       </c>
       <c r="G142" s="6">
-        <v>2522000</v>
+        <v>3719285.7142857141</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B143" s="3">
-        <v>106.32</v>
+        <v>101.09</v>
       </c>
       <c r="C143" s="3">
-        <v>279.4684992</v>
+        <v>156.68950000000001</v>
       </c>
       <c r="D143" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4311,18 +4331,18 @@
         <v>2</v>
       </c>
       <c r="G143" s="6">
-        <v>3719285.7142857141</v>
+        <v>2186142.8571428573</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
-        <v>101.09</v>
+        <v>71</v>
       </c>
       <c r="C144" s="3">
-        <v>156.68950000000001</v>
+        <v>98.406000000000006</v>
       </c>
       <c r="D144" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4334,18 +4354,18 @@
         <v>2</v>
       </c>
       <c r="G144" s="6">
-        <v>2186142.8571428573</v>
+        <v>1647285.7142857143</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B145" s="3">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C145" s="3">
-        <v>98.406000000000006</v>
+        <v>94.696000000000012</v>
       </c>
       <c r="D145" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4354,21 +4374,21 @@
         <v>0.1</v>
       </c>
       <c r="F145" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G145" s="6">
-        <v>1647285.7142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B146" s="3">
-        <v>133</v>
+        <v>115.81</v>
       </c>
       <c r="C146" s="3">
-        <v>94.696000000000012</v>
+        <v>97.28240000000001</v>
       </c>
       <c r="D146" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4377,21 +4397,21 @@
         <v>0.1</v>
       </c>
       <c r="F146" s="5">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="G146" s="6">
-        <v>0</v>
+        <v>3005857.1428571427</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B147" s="3">
-        <v>115.81</v>
+        <v>100.44</v>
       </c>
       <c r="C147" s="3">
-        <v>97.28240000000001</v>
+        <v>73.825400000000002</v>
       </c>
       <c r="D147" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4403,18 +4423,18 @@
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <v>3005857.1428571427</v>
+        <v>2589142.8571428573</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B148" s="3">
-        <v>100.44</v>
+        <v>62.22</v>
       </c>
       <c r="C148" s="3">
-        <v>73.825400000000002</v>
+        <v>93.33</v>
       </c>
       <c r="D148" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4423,21 +4443,21 @@
         <v>0.1</v>
       </c>
       <c r="F148" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" s="6">
-        <v>2589142.8571428573</v>
+        <v>1645571.4285714286</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B149" s="3">
-        <v>62.22</v>
+        <v>114</v>
       </c>
       <c r="C149" s="3">
-        <v>93.33</v>
+        <v>250.61872</v>
       </c>
       <c r="D149" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4446,21 +4466,21 @@
         <v>0.1</v>
       </c>
       <c r="F149" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G149" s="6">
-        <v>1645571.4285714286</v>
+        <v>3002285.7142857141</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B150" s="3">
-        <v>114</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C150" s="3">
-        <v>250.61872</v>
+        <v>61.18</v>
       </c>
       <c r="D150" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4469,67 +4489,67 @@
         <v>0.1</v>
       </c>
       <c r="F150" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G150" s="6">
-        <v>3002285.7142857141</v>
+        <v>1402000</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B151" s="3">
-        <v>64.400000000000006</v>
+        <v>15</v>
       </c>
       <c r="C151" s="3">
-        <v>61.18</v>
+        <v>16.640208722705271</v>
       </c>
       <c r="D151" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E151" s="4">
         <v>0.1</v>
       </c>
       <c r="F151" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" s="6">
-        <v>1402000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B152" s="3">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C152" s="3">
-        <v>16.640208722705271</v>
+        <v>87.78</v>
       </c>
       <c r="D152" s="4">
-        <v>0</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E152" s="4">
         <v>0.1</v>
       </c>
       <c r="F152" s="5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="G152" s="6">
-        <v>158000</v>
+        <v>2420714.2857142859</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B153" s="3">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C153" s="3">
-        <v>87.78</v>
+        <v>163</v>
       </c>
       <c r="D153" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4541,64 +4561,64 @@
         <v>1.75</v>
       </c>
       <c r="G153" s="6">
-        <v>2420714.2857142859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B154" s="3">
-        <v>43</v>
+        <v>38.17</v>
       </c>
       <c r="C154" s="3">
-        <v>163</v>
+        <v>28.629999999999995</v>
       </c>
       <c r="D154" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E154" s="4">
         <v>0.1</v>
       </c>
       <c r="F154" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G154" s="6">
-        <v>0</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B155" s="3">
-        <v>38.17</v>
+        <v>103.8</v>
       </c>
       <c r="C155" s="3">
-        <v>28.629999999999995</v>
+        <v>83.04</v>
       </c>
       <c r="D155" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E155" s="4">
         <v>0.1</v>
       </c>
       <c r="F155" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155" s="6">
-        <v>267000</v>
+        <v>779571.42857142852</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B156" s="3">
-        <v>103.8</v>
+        <v>97</v>
       </c>
       <c r="C156" s="3">
-        <v>83.04</v>
+        <v>296.43900000000002</v>
       </c>
       <c r="D156" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4607,24 +4627,24 @@
         <v>0.1</v>
       </c>
       <c r="F156" s="5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="G156" s="6">
-        <v>779571.42857142852</v>
+        <v>3565000</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B157" s="3">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C157" s="3">
-        <v>296.43900000000002</v>
+        <v>254.66749999999993</v>
       </c>
       <c r="D157" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E157" s="4">
         <v>0.1</v>
@@ -4633,41 +4653,41 @@
         <v>1.75</v>
       </c>
       <c r="G157" s="6">
-        <v>3565000</v>
+        <v>2022000</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B158" s="3">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C158" s="3">
-        <v>254.66749999999993</v>
+        <v>161</v>
       </c>
       <c r="D158" s="4">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E158" s="4">
         <v>0.1</v>
       </c>
       <c r="F158" s="5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G158" s="6">
-        <v>2022000</v>
+        <v>1442571.4285714286</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B159" s="3">
-        <v>70</v>
+        <v>98.88</v>
       </c>
       <c r="C159" s="3">
-        <v>161</v>
+        <v>179.46719999999999</v>
       </c>
       <c r="D159" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4679,18 +4699,18 @@
         <v>2</v>
       </c>
       <c r="G159" s="6">
-        <v>1442571.4285714286</v>
+        <v>2269428.5714285714</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B160" s="3">
-        <v>98.88</v>
+        <v>122</v>
       </c>
       <c r="C160" s="3">
-        <v>179.46719999999999</v>
+        <v>93.940000000000012</v>
       </c>
       <c r="D160" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4699,21 +4719,21 @@
         <v>0.1</v>
       </c>
       <c r="F160" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G160" s="6">
-        <v>2269428.5714285714</v>
+        <v>2348000</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B161" s="3">
-        <v>122</v>
+        <v>106.56</v>
       </c>
       <c r="C161" s="3">
-        <v>93.940000000000012</v>
+        <v>270.44075520000001</v>
       </c>
       <c r="D161" s="4">
         <v>8.1000000000000003E-2</v>
@@ -4722,105 +4742,219 @@
         <v>0.1</v>
       </c>
       <c r="F161" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G161" s="6">
-        <v>2348000</v>
+        <v>2524000</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B162" s="3">
-        <v>106.56</v>
+        <v>43</v>
       </c>
       <c r="C162" s="3">
-        <v>270.44075520000001</v>
+        <v>53</v>
       </c>
       <c r="D162" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E162" s="4">
         <v>0.1</v>
       </c>
       <c r="F162" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G162" s="6">
-        <v>2524000</v>
+        <v>951428.57142857148</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B163" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C163" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D163" s="4">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E163" s="4">
         <v>0.1</v>
       </c>
       <c r="F163" s="5">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="G163" s="6">
-        <v>951428.57142857148</v>
+        <v>19735.588665000003</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B164" s="3">
-        <v>25</v>
+        <v>58.6</v>
       </c>
       <c r="C164" s="3">
-        <v>0</v>
+        <v>38.676000000000002</v>
       </c>
       <c r="D164" s="4">
-        <v>0.13</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E164" s="4">
         <v>0.1</v>
       </c>
       <c r="F164" s="5">
+        <v>2</v>
+      </c>
+      <c r="G164" s="6">
+        <v>1222285.7142857143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" s="3">
+        <v>160.77000000000001</v>
+      </c>
+      <c r="C165" s="3">
+        <v>353.69400000000007</v>
+      </c>
+      <c r="D165" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F165" s="5">
+        <v>2</v>
+      </c>
+      <c r="G165" s="6">
+        <v>2704000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>104</v>
+      </c>
+      <c r="B166" s="3">
+        <v>73.84</v>
+      </c>
+      <c r="C166" s="3">
+        <v>132.91200000000001</v>
+      </c>
+      <c r="D166" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F166" s="5">
+        <v>2</v>
+      </c>
+      <c r="G166" s="6">
+        <v>2026000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" s="3">
+        <v>96.63</v>
+      </c>
+      <c r="C167" s="3">
+        <v>50.714999999999996</v>
+      </c>
+      <c r="D167" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F167" s="5">
         <v>1</v>
       </c>
-      <c r="G164" s="6">
-        <v>19735.588665000003</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165" s="3">
-        <v>58.6</v>
-      </c>
-      <c r="C165" s="3">
-        <v>38.676000000000002</v>
-      </c>
-      <c r="D165" s="4">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E165" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F165" s="5">
-        <v>2</v>
-      </c>
-      <c r="G165" s="6">
-        <v>1222285.7142857143</v>
-      </c>
+      <c r="G167" s="6">
+        <v>1377000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168" s="3">
+        <v>822.87</v>
+      </c>
+      <c r="C168" s="3">
+        <v>658.29600000000005</v>
+      </c>
+      <c r="D168" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F168" s="5">
+        <v>2</v>
+      </c>
+      <c r="G168" s="6">
+        <v>7228000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="3">
+        <v>161.19</v>
+      </c>
+      <c r="C169" s="3">
+        <v>424.50349999999997</v>
+      </c>
+      <c r="D169" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F169" s="5">
+        <v>2</v>
+      </c>
+      <c r="G169" s="6">
+        <v>5278000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G169" xr:uid="{231DE11B-BE07-E242-BC47-60F03B09DCC4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
